--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Areg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Areg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Egfr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H2">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I2">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J2">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>0.5900779226839999</v>
+        <v>0.42963046016275</v>
       </c>
       <c r="R2">
-        <v>3.540467536103999</v>
+        <v>1.718521840651</v>
       </c>
       <c r="S2">
-        <v>0.003360864258635876</v>
+        <v>0.001135573306777004</v>
       </c>
       <c r="T2">
-        <v>0.002838225013104015</v>
+        <v>0.0006160944002927867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H3">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I3">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J3">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>51.88235339529</v>
+        <v>8.032995350572499</v>
       </c>
       <c r="R3">
-        <v>466.94118055761</v>
+        <v>48.19797210343499</v>
       </c>
       <c r="S3">
-        <v>0.2955025776714658</v>
+        <v>0.02123232856934388</v>
       </c>
       <c r="T3">
-        <v>0.3743246124395468</v>
+        <v>0.01727909417033976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H4">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I4">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J4">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>0.4195378360946667</v>
+        <v>0.04463730503283333</v>
       </c>
       <c r="R4">
-        <v>3.775840524852</v>
+        <v>0.267823830197</v>
       </c>
       <c r="S4">
-        <v>0.002389531389451921</v>
+        <v>0.0001179826310791527</v>
       </c>
       <c r="T4">
-        <v>0.003026912382006923</v>
+        <v>9.601551644338237E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H5">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I5">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J5">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>22.675375184359</v>
+        <v>2.09517252028525</v>
       </c>
       <c r="R5">
-        <v>136.052251106154</v>
+        <v>8.380690081140999</v>
       </c>
       <c r="S5">
-        <v>0.1291504987368975</v>
+        <v>0.005537833574992213</v>
       </c>
       <c r="T5">
-        <v>0.1090666411260244</v>
+        <v>0.003004498463414547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H6">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I6">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J6">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>1.065587664955333</v>
+        <v>0.2987293835808333</v>
       </c>
       <c r="R6">
-        <v>9.590288984597999</v>
+        <v>1.792376301485</v>
       </c>
       <c r="S6">
-        <v>0.006069190796534011</v>
+        <v>0.0007895834802212074</v>
       </c>
       <c r="T6">
-        <v>0.007688080119761445</v>
+        <v>0.0006425714101742751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H7">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I7">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J7">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>0.2942371190426666</v>
+        <v>0.01758857932533333</v>
       </c>
       <c r="R7">
-        <v>2.648134071384</v>
+        <v>0.105531475952</v>
       </c>
       <c r="S7">
-        <v>0.00167586513397496</v>
+        <v>4.64890715113922E-05</v>
       </c>
       <c r="T7">
-        <v>0.002122883569136125</v>
+        <v>3.783329943833044E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H8">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I8">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J8">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>0.493175656565</v>
+        <v>5.232750722519834</v>
       </c>
       <c r="R8">
-        <v>1.97270262626</v>
+        <v>31.396504335119</v>
       </c>
       <c r="S8">
-        <v>0.002808945011600132</v>
+        <v>0.01383089094581569</v>
       </c>
       <c r="T8">
-        <v>0.001581422193586425</v>
+        <v>0.01125572573596594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H9">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I9">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J9">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
-        <v>43.36226236608751</v>
+        <v>97.839110869335</v>
       </c>
       <c r="R9">
-        <v>260.173574196525</v>
+        <v>880.551997824015</v>
       </c>
       <c r="S9">
-        <v>0.246975309797888</v>
+        <v>0.2586024338682251</v>
       </c>
       <c r="T9">
-        <v>0.2085688227622713</v>
+        <v>0.3156801049560674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H10">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I10">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J10">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>0.3506415675216667</v>
+        <v>0.5436669692214444</v>
       </c>
       <c r="R10">
-        <v>2.10384940513</v>
+        <v>4.893002722993</v>
       </c>
       <c r="S10">
-        <v>0.001997123882410899</v>
+        <v>0.001436987726127141</v>
       </c>
       <c r="T10">
-        <v>0.001686556350129619</v>
+        <v>0.001754153777359845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H11">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I11">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J11">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>18.95163776597125</v>
+        <v>25.51847817115483</v>
       </c>
       <c r="R11">
-        <v>75.806551063885</v>
+        <v>153.110869026929</v>
       </c>
       <c r="S11">
-        <v>0.1079414761368324</v>
+        <v>0.06744890162061085</v>
       </c>
       <c r="T11">
-        <v>0.06077051891949478</v>
+        <v>0.05489063147182314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H12">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I12">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J12">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>0.8905974551658332</v>
+        <v>3.638420788829444</v>
       </c>
       <c r="R12">
-        <v>5.343584730995</v>
+        <v>32.745787099465</v>
       </c>
       <c r="S12">
-        <v>0.005072511681650951</v>
+        <v>0.009616854272977071</v>
       </c>
       <c r="T12">
-        <v>0.004283698604348731</v>
+        <v>0.01173944699912442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H13">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I13">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J13">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>0.2459176640766667</v>
+        <v>0.2142228256764444</v>
       </c>
       <c r="R13">
-        <v>1.47550598446</v>
+        <v>1.928005431088</v>
       </c>
       <c r="S13">
-        <v>0.001400655499875565</v>
+        <v>0.0005662208458133097</v>
       </c>
       <c r="T13">
-        <v>0.001182843211913021</v>
+        <v>0.0006911947941129624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4624146666666666</v>
+        <v>1.7128805</v>
       </c>
       <c r="H14">
-        <v>1.387244</v>
+        <v>3.425761</v>
       </c>
       <c r="I14">
-        <v>0.195655450002782</v>
+        <v>0.3083197787766753</v>
       </c>
       <c r="J14">
-        <v>0.2228587833086765</v>
+        <v>0.2315738419570639</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.2634995991653333</v>
+        <v>4.58990053369925</v>
       </c>
       <c r="R14">
-        <v>1.580997594992</v>
+        <v>18.359602134797</v>
       </c>
       <c r="S14">
-        <v>0.001500795659277529</v>
+        <v>0.0121317481187343</v>
       </c>
       <c r="T14">
-        <v>0.001267410835999761</v>
+        <v>0.006581963521957374</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4624146666666666</v>
+        <v>1.7128805</v>
       </c>
       <c r="H15">
-        <v>1.387244</v>
+        <v>3.425761</v>
       </c>
       <c r="I15">
-        <v>0.195655450002782</v>
+        <v>0.3083197787766753</v>
       </c>
       <c r="J15">
-        <v>0.2228587833086765</v>
+        <v>0.2315738419570639</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>23.16809153142</v>
+        <v>85.8194496564075</v>
       </c>
       <c r="R15">
-        <v>208.51282378278</v>
+        <v>514.9166979384449</v>
       </c>
       <c r="S15">
-        <v>0.1319568276924883</v>
+        <v>0.2268327906619849</v>
       </c>
       <c r="T15">
-        <v>0.1671548477646744</v>
+        <v>0.1845989307281392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4624146666666666</v>
+        <v>1.7128805</v>
       </c>
       <c r="H16">
-        <v>1.387244</v>
+        <v>3.425761</v>
       </c>
       <c r="I16">
-        <v>0.195655450002782</v>
+        <v>0.3083197787766753</v>
       </c>
       <c r="J16">
-        <v>0.2228587833086765</v>
+        <v>0.2315738419570639</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.1873448359884445</v>
+        <v>0.4768767794431666</v>
       </c>
       <c r="R16">
-        <v>1.686103523896</v>
+        <v>2.861260676659</v>
       </c>
       <c r="S16">
-        <v>0.001067046468116635</v>
+        <v>0.001260451926877592</v>
       </c>
       <c r="T16">
-        <v>0.001351669277405818</v>
+        <v>0.001025769145883991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4624146666666666</v>
+        <v>1.7128805</v>
       </c>
       <c r="H17">
-        <v>1.387244</v>
+        <v>3.425761</v>
       </c>
       <c r="I17">
-        <v>0.195655450002782</v>
+        <v>0.3083197787766753</v>
       </c>
       <c r="J17">
-        <v>0.2228587833086765</v>
+        <v>0.2315738419570639</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>10.12570042414867</v>
+        <v>22.38350014895675</v>
       </c>
       <c r="R17">
-        <v>60.754202544892</v>
+        <v>89.534000595827</v>
       </c>
       <c r="S17">
-        <v>0.05767222148285627</v>
+        <v>0.05916271688875516</v>
       </c>
       <c r="T17">
-        <v>0.04870376456095116</v>
+        <v>0.03209816430497277</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4624146666666666</v>
+        <v>1.7128805</v>
       </c>
       <c r="H18">
-        <v>1.387244</v>
+        <v>3.425761</v>
       </c>
       <c r="I18">
-        <v>0.195655450002782</v>
+        <v>0.3083197787766753</v>
       </c>
       <c r="J18">
-        <v>0.2228587833086765</v>
+        <v>0.2315738419570639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>0.4758387185782222</v>
+        <v>3.191436092799166</v>
       </c>
       <c r="R18">
-        <v>4.282548467204</v>
+        <v>19.148616556795</v>
       </c>
       <c r="S18">
-        <v>0.002710200264518395</v>
+        <v>0.008435411297175177</v>
       </c>
       <c r="T18">
-        <v>0.003433116122517557</v>
+        <v>0.006864827175851391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.7128805</v>
+      </c>
+      <c r="H19">
+        <v>3.425761</v>
+      </c>
+      <c r="I19">
+        <v>0.3083197787766753</v>
+      </c>
+      <c r="J19">
+        <v>0.2315738419570639</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1097013333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.329104</v>
+      </c>
+      <c r="O19">
+        <v>0.001610859624766094</v>
+      </c>
+      <c r="P19">
+        <v>0.001745391780191372</v>
+      </c>
+      <c r="Q19">
+        <v>0.1879052746906667</v>
+      </c>
+      <c r="R19">
+        <v>1.127431648144</v>
+      </c>
+      <c r="S19">
+        <v>0.0004966598831481601</v>
+      </c>
+      <c r="T19">
+        <v>0.0004041870802591953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.414036</v>
+      </c>
+      <c r="H20">
+        <v>1.242108</v>
+      </c>
+      <c r="I20">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J20">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.6796385</v>
+      </c>
+      <c r="N20">
+        <v>5.359277000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.03934793987875059</v>
+      </c>
+      <c r="P20">
+        <v>0.02842274181890429</v>
+      </c>
+      <c r="Q20">
+        <v>1.109466805986</v>
+      </c>
+      <c r="R20">
+        <v>6.656800835916001</v>
+      </c>
+      <c r="S20">
+        <v>0.002932475712163385</v>
+      </c>
+      <c r="T20">
+        <v>0.002386479835088154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.414036</v>
+      </c>
+      <c r="H21">
+        <v>1.242108</v>
+      </c>
+      <c r="I21">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J21">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>50.102415</v>
+      </c>
+      <c r="N21">
+        <v>150.307245</v>
+      </c>
+      <c r="O21">
+        <v>0.7357062578404556</v>
+      </c>
+      <c r="P21">
+        <v>0.7971493203553003</v>
+      </c>
+      <c r="Q21">
+        <v>20.74420349694</v>
+      </c>
+      <c r="R21">
+        <v>186.69783147246</v>
+      </c>
+      <c r="S21">
+        <v>0.054829826899498</v>
+      </c>
+      <c r="T21">
+        <v>0.06693164194725421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.414036</v>
+      </c>
+      <c r="H22">
+        <v>1.242108</v>
+      </c>
+      <c r="I22">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J22">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2784063333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.8352189999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.004088131912518571</v>
+      </c>
+      <c r="P22">
+        <v>0.00442955532980352</v>
+      </c>
+      <c r="Q22">
+        <v>0.115270244628</v>
+      </c>
+      <c r="R22">
+        <v>1.037432201652</v>
+      </c>
+      <c r="S22">
+        <v>0.0003046753547586599</v>
+      </c>
+      <c r="T22">
+        <v>0.0003719220524302984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.414036</v>
+      </c>
+      <c r="H23">
+        <v>1.242108</v>
+      </c>
+      <c r="I23">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J23">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.0677535</v>
+      </c>
+      <c r="N23">
+        <v>26.135507</v>
+      </c>
+      <c r="O23">
+        <v>0.1918875173156127</v>
+      </c>
+      <c r="P23">
+        <v>0.1386087652806835</v>
+      </c>
+      <c r="Q23">
+        <v>5.410520388126</v>
+      </c>
+      <c r="R23">
+        <v>32.46312232875599</v>
+      </c>
+      <c r="S23">
+        <v>0.01430076099865264</v>
+      </c>
+      <c r="T23">
+        <v>0.01163811096819688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.414036</v>
+      </c>
+      <c r="H24">
+        <v>1.242108</v>
+      </c>
+      <c r="I24">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J24">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.863198333333333</v>
+      </c>
+      <c r="N24">
+        <v>5.589594999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.02735929342789644</v>
+      </c>
+      <c r="P24">
+        <v>0.02964422543511714</v>
+      </c>
+      <c r="Q24">
+        <v>0.7714311851399999</v>
+      </c>
+      <c r="R24">
+        <v>6.942880666259999</v>
+      </c>
+      <c r="S24">
+        <v>0.00203900035748975</v>
+      </c>
+      <c r="T24">
+        <v>0.002489040173480409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.414036</v>
+      </c>
+      <c r="H25">
+        <v>1.242108</v>
+      </c>
+      <c r="I25">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J25">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1097013333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.329104</v>
+      </c>
+      <c r="O25">
+        <v>0.001610859624766094</v>
+      </c>
+      <c r="P25">
+        <v>0.001745391780191372</v>
+      </c>
+      <c r="Q25">
+        <v>0.045420301248</v>
+      </c>
+      <c r="R25">
+        <v>0.408782711232</v>
+      </c>
+      <c r="S25">
+        <v>0.0001200521994261314</v>
+      </c>
+      <c r="T25">
+        <v>0.0001465496296696087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.315502</v>
+      </c>
+      <c r="H26">
+        <v>3.946506</v>
+      </c>
+      <c r="I26">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J26">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.6796385</v>
+      </c>
+      <c r="N26">
+        <v>5.359277000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.03934793987875059</v>
+      </c>
+      <c r="P26">
+        <v>0.02842274181890429</v>
+      </c>
+      <c r="Q26">
+        <v>3.525069806027001</v>
+      </c>
+      <c r="R26">
+        <v>21.150418836162</v>
+      </c>
+      <c r="S26">
+        <v>0.009317251795260214</v>
+      </c>
+      <c r="T26">
+        <v>0.007582478325600038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.315502</v>
+      </c>
+      <c r="H27">
+        <v>3.946506</v>
+      </c>
+      <c r="I27">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J27">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>50.102415</v>
+      </c>
+      <c r="N27">
+        <v>150.307245</v>
+      </c>
+      <c r="O27">
+        <v>0.7357062578404556</v>
+      </c>
+      <c r="P27">
+        <v>0.7971493203553003</v>
+      </c>
+      <c r="Q27">
+        <v>65.90982713733001</v>
+      </c>
+      <c r="R27">
+        <v>593.18844423597</v>
+      </c>
+      <c r="S27">
+        <v>0.1742088778414037</v>
+      </c>
+      <c r="T27">
+        <v>0.2126595485534997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.315502</v>
+      </c>
+      <c r="H28">
+        <v>3.946506</v>
+      </c>
+      <c r="I28">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J28">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2784063333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.8352189999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.004088131912518571</v>
+      </c>
+      <c r="P28">
+        <v>0.00442955532980352</v>
+      </c>
+      <c r="Q28">
+        <v>0.3662440883126667</v>
+      </c>
+      <c r="R28">
+        <v>3.296196794814</v>
+      </c>
+      <c r="S28">
+        <v>0.0009680342736760251</v>
+      </c>
+      <c r="T28">
+        <v>0.001181694837686004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.4624146666666666</v>
-      </c>
-      <c r="H19">
-        <v>1.387244</v>
-      </c>
-      <c r="I19">
-        <v>0.195655450002782</v>
-      </c>
-      <c r="J19">
-        <v>0.2228587833086765</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2841426666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.852428</v>
-      </c>
-      <c r="O19">
-        <v>0.003824879069375389</v>
-      </c>
-      <c r="P19">
-        <v>0.00425370152817691</v>
-      </c>
-      <c r="Q19">
-        <v>0.1313917364924444</v>
-      </c>
-      <c r="R19">
-        <v>1.182525628432</v>
-      </c>
-      <c r="S19">
-        <v>0.0007483584355248636</v>
-      </c>
-      <c r="T19">
-        <v>0.0009479747471277638</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.315502</v>
+      </c>
+      <c r="H29">
+        <v>3.946506</v>
+      </c>
+      <c r="I29">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J29">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>13.0677535</v>
+      </c>
+      <c r="N29">
+        <v>26.135507</v>
+      </c>
+      <c r="O29">
+        <v>0.1918875173156127</v>
+      </c>
+      <c r="P29">
+        <v>0.1386087652806835</v>
+      </c>
+      <c r="Q29">
+        <v>17.190655864757</v>
+      </c>
+      <c r="R29">
+        <v>103.143935188542</v>
+      </c>
+      <c r="S29">
+        <v>0.04543730423260187</v>
+      </c>
+      <c r="T29">
+        <v>0.03697736007227617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.315502</v>
+      </c>
+      <c r="H30">
+        <v>3.946506</v>
+      </c>
+      <c r="I30">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J30">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.863198333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.589594999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.02735929342789644</v>
+      </c>
+      <c r="P30">
+        <v>0.02964422543511714</v>
+      </c>
+      <c r="Q30">
+        <v>2.451041133896667</v>
+      </c>
+      <c r="R30">
+        <v>22.05937020507</v>
+      </c>
+      <c r="S30">
+        <v>0.006478444020033237</v>
+      </c>
+      <c r="T30">
+        <v>0.007908339676486648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.315502</v>
+      </c>
+      <c r="H31">
+        <v>3.946506</v>
+      </c>
+      <c r="I31">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J31">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.1097013333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.329104</v>
+      </c>
+      <c r="O31">
+        <v>0.001610859624766094</v>
+      </c>
+      <c r="P31">
+        <v>0.001745391780191372</v>
+      </c>
+      <c r="Q31">
+        <v>0.1443123234026667</v>
+      </c>
+      <c r="R31">
+        <v>1.298810910624</v>
+      </c>
+      <c r="S31">
+        <v>0.0003814376248671002</v>
+      </c>
+      <c r="T31">
+        <v>0.0004656269767112755</v>
       </c>
     </row>
   </sheetData>
